--- a/Images/Relevance/lse_values_relevance_integration.xlsx
+++ b/Images/Relevance/lse_values_relevance_integration.xlsx
@@ -525,16 +525,16 @@
         <v>2.015299571823604</v>
       </c>
       <c r="C3" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="D3" t="n">
         <v>2.066314774947724</v>
       </c>
       <c r="E3" t="n">
-        <v>6.539916518762935</v>
+        <v>6.075290781424915</v>
       </c>
       <c r="F3" t="n">
-        <v>13.74464190041525</v>
+        <v>12.50766834535323</v>
       </c>
       <c r="G3" t="n">
         <v>9</v>
@@ -813,16 +813,16 @@
         <v>2.20350792097491</v>
       </c>
       <c r="C12" t="n">
-        <v>4.967233600411999</v>
+        <v>4.767233600411998</v>
       </c>
       <c r="D12" t="n">
         <v>2.742738238782693</v>
       </c>
       <c r="E12" t="n">
-        <v>3.70129983983242</v>
+        <v>3.654837266098618</v>
       </c>
       <c r="F12" t="n">
-        <v>9.948099290746679</v>
+        <v>9.824401935240477</v>
       </c>
       <c r="G12" t="n">
         <v>8.917215162715937</v>
